--- a/Preferences.xlsx
+++ b/Preferences.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="5595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,9 +31,6 @@
     <t>Attributes</t>
   </si>
   <si>
-    <t>C:\Users\rbhatia\Google Drive\Project\Automation\Zauto\TestCases.xlsx</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Test Cases file location </t>
     </r>
@@ -98,6 +96,9 @@
       </rPr>
       <t>(Full Folder path, don't mention report name)</t>
     </r>
+  </si>
+  <si>
+    <t>H:\git\ZAuto\TestCases.xlsx</t>
   </si>
 </sst>
 </file>
@@ -457,9 +458,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -476,20 +475,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -501,15 +500,15 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Preferences.xlsx
+++ b/Preferences.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -458,7 +457,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Preferences.xlsx
+++ b/Preferences.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Browser</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>H:\git\ZAuto\TestCases.xlsx</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +502,9 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>

--- a/Preferences.xlsx
+++ b/Preferences.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Preferences.xlsx
+++ b/Preferences.xlsx
@@ -31,7 +31,31 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Test Cases file location </t>
+      <t xml:space="preserve">Sheet # </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Default: Chrome</t>
+  </si>
+  <si>
+    <t>Default: folder location of the tool</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ExecutionReportPath &amp; Screenshots </t>
     </r>
     <r>
       <rPr>
@@ -42,7 +66,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Full path - C:\foldername\....)</t>
+      <t>(Full Folder path, don't mention report name)</t>
+    </r>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Cases file location </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Full path with extension - C:\foldername\....)</t>
     </r>
     <r>
       <rPr>
@@ -57,50 +100,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sheet # </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Default: Chrome</t>
-  </si>
-  <si>
-    <t>Default: folder location of the tool</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ExecutionReportPath &amp; Screenshots </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Full Folder path, don't mention report name)</t>
-    </r>
-  </si>
-  <si>
-    <t>H:\git\ZAuto\TestCases.xlsx</t>
-  </si>
-  <si>
-    <t>Chrome</t>
+    <t>H:\git\ZAuto\TestCases.xls</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,20 +479,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -503,18 +503,18 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Preferences.xlsx
+++ b/Preferences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="5595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="5600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     </r>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Test Cases file location </t>
     </r>
@@ -100,7 +97,10 @@
     </r>
   </si>
   <si>
-    <t>H:\git\ZAuto\TestCases.xls</t>
+    <t>C:\Users\rbhatia\TAuto\TestCases.xlsx</t>
+  </si>
+  <si>
+    <t>Firefox</t>
   </si>
 </sst>
 </file>
@@ -461,17 +461,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -482,15 +482,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -498,18 +498,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -521,7 +521,7 @@
   <sheetProtection selectLockedCells="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"Chrome,Firefox,Internet Explorer"</formula1>
+      <formula1>"Chrome,Firefox,Internet Explorer,Chrome (Non-GUI),Firefox (Non-GUI)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>

--- a/Preferences.xlsx
+++ b/Preferences.xlsx
@@ -100,7 +100,7 @@
     <t>C:\Users\rbhatia\TAuto\TestCases.xlsx</t>
   </si>
   <si>
-    <t>Firefox</t>
+    <t>Chrome (Non-GUI)</t>
   </si>
 </sst>
 </file>

--- a/Preferences.xlsx
+++ b/Preferences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="5600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="5595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Browser</t>
   </si>
@@ -28,21 +28,6 @@
   </si>
   <si>
     <t>Attributes</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sheet # </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
   </si>
   <si>
     <t>Notes</t>
@@ -70,6 +55,27 @@
     </r>
   </si>
   <si>
+    <t>C:\Users\rbhatia\TAuto\TestCases.xlsx</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sheet # </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* (0 - first sheet, 1 - second sheet,….</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Test Cases file location </t>
     </r>
@@ -82,7 +88,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Full path with extension - C:\foldername\....)</t>
+      <t>(Full path with extension - C:\foldername\....xlsx)</t>
     </r>
     <r>
       <rPr>
@@ -97,10 +103,10 @@
     </r>
   </si>
   <si>
-    <t>C:\Users\rbhatia\TAuto\TestCases.xlsx</t>
-  </si>
-  <si>
-    <t>Chrome (Non-GUI)</t>
+    <t>Default: 1</t>
+  </si>
+  <si>
+    <t>Run testcases multiple times (same test data)</t>
   </si>
 </sst>
 </file>
@@ -458,20 +464,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -479,42 +485,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +541,7 @@
       <formula1>"Chrome,Firefox,Internet Explorer,Chrome (Non-GUI),Firefox (Non-GUI)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+      <formula1>"0,1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Preferences.xlsx
+++ b/Preferences.xlsx
@@ -501,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/Preferences.xlsx
+++ b/Preferences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="5595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Browser</t>
   </si>
@@ -106,7 +106,10 @@
     <t>Default: 1</t>
   </si>
   <si>
-    <t>Run testcases multiple times (same test data)</t>
+    <t>Execute testcases multiple times (Same test data provided in the test cases)</t>
+  </si>
+  <si>
+    <t>Execute testcases multiple times (Auto-Generate test data, based on the test cases data)</t>
   </si>
 </sst>
 </file>
@@ -464,15 +467,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
@@ -528,10 +531,15 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Preferences.xlsx
+++ b/Preferences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Browser</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Execute testcases multiple times (Auto-Generate test data, based on the test cases data)</t>
+  </si>
+  <si>
+    <t>Do not use this feature when using multiple executions with same test data.</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +507,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -531,7 +534,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -540,6 +543,9 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Preferences.xlsx
+++ b/Preferences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6270" windowHeight="3420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Browser</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Do not use this feature when using multiple executions with same test data.</t>
+  </si>
+  <si>
+    <t>Default: 0 (first sheet)</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +510,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -532,9 +538,6 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -555,7 +558,7 @@
       <formula1>"Chrome,Firefox,Internet Explorer,Chrome (Non-GUI),Firefox (Non-GUI)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"0,1,2,3,4,5,6,7,8,9,10"</formula1>
+      <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Preferences.xlsx
+++ b/Preferences.xlsx
@@ -55,25 +55,7 @@
     </r>
   </si>
   <si>
-    <t>C:\Users\rbhatia\TAuto\TestCases.xlsx</t>
-  </si>
-  <si>
     <t>Chrome</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sheet # </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* (0 - first sheet, 1 - second sheet,….</t>
-    </r>
   </si>
   <si>
     <r>
@@ -117,12 +99,31 @@
   <si>
     <t>Default: 0 (first sheet)</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sheet # * </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0 - first sheet, 1 - second sheet,….</t>
+    </r>
+  </si>
+  <si>
+    <t>C:\Users\rbhatia\Tauto\TestCases.xlsx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,13 +135,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -476,7 +470,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,21 +493,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -521,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -537,18 +531,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Preferences.xlsx
+++ b/Preferences.xlsx
@@ -55,9 +55,6 @@
     </r>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Test Cases file location </t>
     </r>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>C:\Users\rbhatia\Tauto\TestCases.xlsx</t>
+  </si>
+  <si>
+    <t>Microsoft Edge</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,21 +493,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -531,25 +531,25 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"Chrome,Firefox,Internet Explorer,Chrome (Non-GUI),Firefox (Non-GUI)"</formula1>
+      <formula1>"Chrome,Firefox,Internet Explorer,Microsoft Edge,Chrome (Non-GUI),Firefox (Non-GUI)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20"</formula1>
